--- a/output.xlsx
+++ b/output.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,7 +384,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>DURATION</t>
+          <t>ESTM_ENDPT</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ESTM_EARNING</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>DURATION(DAYS)</t>
         </is>
       </c>
     </row>
@@ -405,7 +415,13 @@
       <c r="D2" t="n">
         <v>102.4664230804966</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>114.8046860619147</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12.3382629814181</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>43</t>
         </is>
@@ -428,7 +444,13 @@
       <c r="D3" t="n">
         <v>114.8046860619147</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>109.1246955930548</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.67999046885987</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>46</t>
         </is>
@@ -451,7 +473,13 @@
       <c r="D4" t="n">
         <v>109.1246955930548</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>110.6618175351283</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.537121942073526</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -474,7 +502,13 @@
       <c r="D5" t="n">
         <v>110.2085815424898</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>111.051968668739</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8433871262491976</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
